--- a/Resources/iOS release date.xlsx
+++ b/Resources/iOS release date.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10119"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/borancui/PycharmProjects/PredictiOSVersionRelease/Resources/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/borancui/WebstormProjects/PredictiOSVersion/Resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2AA9E6A-DDD2-3E4A-9545-4D931E09713C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F75A6D6-7172-CE4B-8F0F-E1A82D3DC8B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Date</t>
   </si>
@@ -87,6 +87,10 @@
   </si>
   <si>
     <t>18.2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>18.3</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -457,10 +461,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C67"/>
+  <dimension ref="A1:C68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="146" zoomScaleNormal="146" workbookViewId="0">
-      <selection activeCell="E69" sqref="E69"/>
+    <sheetView tabSelected="1" topLeftCell="A53" zoomScale="146" zoomScaleNormal="146" workbookViewId="0">
+      <selection activeCell="C60" sqref="C60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -1006,6 +1010,14 @@
         <v>17</v>
       </c>
     </row>
+    <row r="68" spans="1:2">
+      <c r="A68" s="1">
+        <v>45685</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
